--- a/Green Containers Company_Financial Modelling.xlsx
+++ b/Green Containers Company_Financial Modelling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rohit Jacob\Downloads\Rohit Jacob\CFA\Level 1\Financial Modelling Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F8565-86AF-4AF0-BBB9-99C4305D2F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B23A7DE2-A568-4F65-9DEA-6F7E285C55FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" tabRatio="845" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="23" r:id="rId1"/>
@@ -26,103 +26,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="K288" authorId="0" shapeId="0" xr:uid="{9348DE71-38AA-42E6-8F50-93D8511549CA}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note on Interest Expense
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In the video tutorial series, we indicated that you can calculate Interest Expense and Interest Income in one of two ways:
-1) =Rate x Avg(Beg Bal, End Bal);  or 
-2) = Rate x Beg Bal
-We chose to use Rate x Beg Bal in this sample model to avoid having a circular reference in the file.  
-Both approaches are used by organizations all over the world so check with your team to see if there is a preference.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K304" authorId="0" shapeId="0" xr:uid="{AC8474A6-D4A4-4FEA-8C4F-EE553D3A978B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note on Interest Expense
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In the video tutorial series, we indicated that you can calculate Interest Expense and Interest Income in one of two ways:
-1) =Rate x Avg(Beg Bal, End Bal);  or 
-2) = Rate x Beg Bal
-We chose to use Rate x Beg Bal in this sample model to avoid having a circular reference in the file.  
-Both approaches are used by organizations all over the world so check with your team to see if there is a preference.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K313" authorId="0" shapeId="0" xr:uid="{190634BD-9407-42EF-BA36-6EA5AB3FFB02}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note on Interest Expense
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-In the video tutorial series, we indicated that you can calculate Interest Expense and Interest Income in one of two ways:
-1) =Rate x Avg(Beg Bal, End Bal);  or 
-2) = Rate x Beg Bal
-We chose to use Rate x Beg Bal in this sample model to avoid having a circular reference in the file.  
-Both approaches are used by organizations all over the world so check with your team to see if there is a preference.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,7 +679,7 @@
     <numFmt numFmtId="196" formatCode="0.0%;\(0.0%\)"/>
     <numFmt numFmtId="197" formatCode="[&gt;-0.000001]\ 0.0_);\ \(0.0\)_)"/>
   </numFmts>
-  <fonts count="78">
+  <fonts count="76">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1149,19 +1052,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF009B73"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2416,11 +2306,11 @@
     <xf numFmtId="194" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="64" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="62" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -2430,13 +2320,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
@@ -2582,7 +2472,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="9" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2600,28 +2490,28 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="71" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="69" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="71" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="69" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2632,7 +2522,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="7" applyFill="1"/>
@@ -2646,7 +2536,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="71" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="7" applyFill="1"/>
@@ -2660,29 +2550,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="3" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="41" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="42" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="42" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="44" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="43" xfId="7" applyFill="1" applyBorder="1"/>
@@ -2788,12 +2678,12 @@
     <xf numFmtId="175" fontId="29" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="175" fontId="29" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="169" fontId="59" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="62" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="60" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="62" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="60" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="59" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="172" fontId="59" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2832,8 +2722,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="171" fontId="63" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="61" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="61" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="173" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="59" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -2874,7 +2764,7 @@
     <xf numFmtId="172" fontId="59" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="0" xfId="13" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2883,11 +2773,11 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="196" fontId="58" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="75" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="196" fontId="74" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="50" xfId="7" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="196" fontId="76" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="50" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="7" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Across" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3376,14 +3266,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E5F473-1E0F-4968-AD6B-851D93C7498F}">
   <dimension ref="B4:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="534"/>
-    <col min="2" max="2" width="19.6328125" style="534" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="534" customWidth="1"/>
     <col min="3" max="16384" width="8.7265625" style="534"/>
   </cols>
   <sheetData>
@@ -3406,7 +3296,7 @@
     <row r="6" spans="2:13" ht="17.5">
       <c r="B6" s="535">
         <f ca="1">TODAY()</f>
-        <v>45567</v>
+        <v>45589</v>
       </c>
       <c r="C6" s="432"/>
       <c r="D6" s="432"/>
@@ -5786,7 +5676,7 @@
   <dimension ref="B1:Q78"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+      <selection activeCell="V68" sqref="V68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -5909,7 +5799,7 @@
       <c r="H8" s="332"/>
       <c r="J8" s="337" t="str">
         <f ca="1">"Stock Price - "&amp;TEXT(TODAY()-1,"mm/dd/yy")</f>
-        <v>Stock Price - 10/01/24</v>
+        <v>Stock Price - 10/23/24</v>
       </c>
       <c r="K8" s="7"/>
       <c r="M8" s="8"/>
@@ -7575,12 +7465,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:II342"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AB86" sqref="AB86"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="V287" sqref="V287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.453125" defaultRowHeight="12.5"/>
@@ -15551,7 +15441,6 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
